--- a/data_year/zb/固定资产投资和房地产/房地产开发企业房屋建筑面积和造价.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业房屋建筑面积和造价.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,281 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.1</v>
+        <v>19.4</v>
       </c>
       <c r="C2" t="n">
-        <v>65896.91529999999</v>
+        <v>405356.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2859.3463</v>
+        <v>17542.7347</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.96</v>
+        <v>2228</v>
       </c>
       <c r="F2" t="n">
-        <v>25104.86</v>
+        <v>78743.89999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.6</v>
+        <v>18.2763270361</v>
       </c>
       <c r="C3" t="n">
-        <v>79411.6819</v>
+        <v>506775.4802</v>
       </c>
       <c r="D3" t="n">
-        <v>3369.4469</v>
+        <v>21975.9131</v>
       </c>
       <c r="E3" t="n">
-        <v>1128.14</v>
+        <v>2372.6977287174</v>
       </c>
       <c r="F3" t="n">
-        <v>29867.3633</v>
+        <v>92619.94409999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.2</v>
+        <v>17.33901652</v>
       </c>
       <c r="C4" t="n">
-        <v>94104.0052</v>
+        <v>573417.5193</v>
       </c>
       <c r="D4" t="n">
-        <v>4141.6949</v>
+        <v>24836.6202</v>
       </c>
       <c r="E4" t="n">
-        <v>1184.16</v>
+        <v>2498.0267127776</v>
       </c>
       <c r="F4" t="n">
-        <v>34975.7534</v>
+        <v>99424.9584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.3</v>
+        <v>15.2402758842</v>
       </c>
       <c r="C5" t="n">
-        <v>117525.9899</v>
+        <v>665571.8884000001</v>
       </c>
       <c r="D5" t="n">
-        <v>5279.9528</v>
+        <v>26805.3771</v>
       </c>
       <c r="E5" t="n">
-        <v>1273.38</v>
+        <v>2642.6163764079</v>
       </c>
       <c r="F5" t="n">
-        <v>41464.061</v>
+        <v>101434.992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.2</v>
+        <v>14.7916941513</v>
       </c>
       <c r="C6" t="n">
-        <v>140451.3926</v>
+        <v>726482.338</v>
       </c>
       <c r="D6" t="n">
-        <v>5952.482</v>
+        <v>30261.9873</v>
       </c>
       <c r="E6" t="n">
-        <v>1402</v>
+        <v>2816.1414573518</v>
       </c>
       <c r="F6" t="n">
-        <v>42464.8675</v>
+        <v>107459.0455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.1686193275</v>
+        <v>13.6</v>
       </c>
       <c r="C7" t="n">
-        <v>166053.2563</v>
+        <v>735693.3687</v>
       </c>
       <c r="D7" t="n">
-        <v>7752.2369</v>
+        <v>30552.3769</v>
       </c>
       <c r="E7" t="n">
-        <v>1451.2666584507</v>
+        <v>3054</v>
       </c>
       <c r="F7" t="n">
-        <v>53417.0399</v>
+        <v>100039.1003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.662633917</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>194786.4211</v>
+        <v>758974.803</v>
       </c>
       <c r="D8" t="n">
-        <v>8729.3459</v>
+        <v>32252.1317</v>
       </c>
       <c r="E8" t="n">
-        <v>1563.5325528621</v>
+        <v>3039</v>
       </c>
       <c r="F8" t="n">
-        <v>55830.9188</v>
+        <v>106127.7077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.6462139543</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>236318.241</v>
+        <v>781483.726</v>
       </c>
       <c r="D9" t="n">
-        <v>10039.8923</v>
+        <v>31512.4591</v>
       </c>
       <c r="E9" t="n">
-        <v>1656.5652529365</v>
+        <v>3105</v>
       </c>
       <c r="F9" t="n">
-        <v>60606.6817</v>
+        <v>101486.4099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.5</v>
+        <v>11.5</v>
       </c>
       <c r="C10" t="n">
-        <v>283266.2</v>
+        <v>822299.5555</v>
       </c>
       <c r="D10" t="n">
-        <v>11947.5659</v>
+        <v>30309.0693</v>
       </c>
       <c r="E10" t="n">
-        <v>1795</v>
+        <v>3210</v>
       </c>
       <c r="F10" t="n">
-        <v>66544.8</v>
+        <v>94421.1486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.7</v>
+        <v>10.7</v>
       </c>
       <c r="C11" t="n">
-        <v>320368.2</v>
+        <v>893820.8892</v>
       </c>
       <c r="D11" t="n">
-        <v>14689.3651</v>
+        <v>34045.9017</v>
       </c>
       <c r="E11" t="n">
-        <v>2021</v>
+        <v>3549</v>
       </c>
       <c r="F11" t="n">
-        <v>72677.39999999999</v>
+        <v>95941.5331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>405356.4</v>
+        <v>926759.1875999999</v>
       </c>
       <c r="D12" t="n">
-        <v>17542.7347</v>
+        <v>34493.8273</v>
       </c>
       <c r="E12" t="n">
-        <v>2228</v>
+        <v>3781</v>
       </c>
       <c r="F12" t="n">
-        <v>78743.89999999999</v>
+        <v>91218.2251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.2763270361</v>
+        <v>10.4</v>
       </c>
       <c r="C13" t="n">
-        <v>506775.4802</v>
+        <v>975386.5101</v>
       </c>
       <c r="D13" t="n">
-        <v>21975.9131</v>
+        <v>39458.1541</v>
       </c>
       <c r="E13" t="n">
-        <v>2372.6977287174</v>
+        <v>3891</v>
       </c>
       <c r="F13" t="n">
-        <v>92619.94409999999</v>
+        <v>101411.9393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>17.33901652</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>573417.5193</v>
-      </c>
-      <c r="D14" t="n">
-        <v>24836.6202</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2498.0267127776</v>
-      </c>
+        <v>904999.2574</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>99424.9584</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>15.2402758842</v>
-      </c>
-      <c r="C15" t="n">
-        <v>665571.8884000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26805.3771</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2642.6163764079</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101434.992</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14.7916941513</v>
-      </c>
-      <c r="C16" t="n">
-        <v>726482.338</v>
-      </c>
-      <c r="D16" t="n">
-        <v>30261.9873</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2816.1414573518</v>
-      </c>
-      <c r="F16" t="n">
-        <v>107459.0455</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>735693.3687</v>
-      </c>
-      <c r="D17" t="n">
-        <v>30552.3769</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3054</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100039.1003</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14</v>
-      </c>
-      <c r="C18" t="n">
-        <v>758974.803</v>
-      </c>
-      <c r="D18" t="n">
-        <v>32252.1317</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3039</v>
-      </c>
-      <c r="F18" t="n">
-        <v>106127.7077</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>13</v>
-      </c>
-      <c r="C19" t="n">
-        <v>781483.726</v>
-      </c>
-      <c r="D19" t="n">
-        <v>31512.4591</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3105</v>
-      </c>
-      <c r="F19" t="n">
-        <v>101486.4099</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>822299.5555</v>
-      </c>
-      <c r="D20" t="n">
-        <v>30309.0693</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3210</v>
-      </c>
-      <c r="F20" t="n">
-        <v>94421.1486</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>893820.8892</v>
-      </c>
-      <c r="D21" t="n">
-        <v>34045.9017</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3549</v>
-      </c>
-      <c r="F21" t="n">
-        <v>95941.5331</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>926759.1875999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>34493.8273</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3781</v>
-      </c>
-      <c r="F22" t="n">
-        <v>91218.2251</v>
+        <v>86222.22100000001</v>
       </c>
     </row>
   </sheetData>
